--- a/fastqFiles/fastq_J.PLAGGENBERG_06.20.19.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_06.20.19.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicaplaggenberg/Documents/rnaseq-database/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5692B854-DF8C-3D4A-B8CB-42114005DA23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18880" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="52">
   <si>
     <t>libraryDate</t>
   </si>
@@ -59,39 +68,159 @@
   </si>
   <si>
     <t>spikein</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Brent_1_GTAC_47_SIC_Index2_6_ATGTTCTATC_GACCTTGT_S227_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_10_GTAC_56_SIC_Index2_6_TCCGGGAATC_GACCTTGT_S236_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_11_GTAC_57_SIC_Index2_6_CGAAAGTATC_GACCTTGT_S237_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_13_GTAC_59_SIC_Index2_6_AGTTATGATC_GACCTTGT_S239_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_14_GTAC_60_SIC_Index2_6_CTGCAATATC_GACCTTGT_S240_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_15_GTAC_61_SIC_Index2_6_CAAGCCGATC_GACCTTGT_S241_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_16_GTAC_62_SIC_Index2_6_GGGTCAAATC_GACCTTGT_S242_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_17_GTAC_63_SIC_Index2_6_GCAACGCATC_GACCTTGT_S243_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_18_GTAC_64_SIC_Index2_6_TGATTACATC_GACCTTGT_S244_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_19_GTAC_65_SIC_Index2_6_TGCTGGGATC_GACCTTGT_S245_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_20_GTAC_66_SIC_Index2_6_GACACAGATC_GACCTTGT_S246_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_21_GTAC_1_SIC_Index2_6_TGAGGTTATC_GACCTTGT_S247_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_22_GTAC_2_SIC_Index2_6_GCTTAGAATC_GACCTTGT_S248_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_23_GTAC_3_SIC_Index2_6_ATGACAGATC_GACCTTGT_S249_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_24_GTAC_4_SIC_Index2_6_CACCTCCATC_GACCTTGT_S250_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_25_GTAC_5_SIC_Index2_6_ATCGAGCATC_GACCTTGT_S251_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_26_GTAC_6_SIC_Index2_6_TACTCTAATC_GACCTTGT_S252_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_27_GTAC_7_SIC_Index2_6_AGACTGAATC_GACCTTGT_S253_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_28_GTAC_9_SIC_Index2_6_CCGATTAATC_GACCTTGT_S254_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_29_GTAC_10_SIC_Index2_6_GGCAGCGATC_GACCTTGT_S255_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_2_GTAC_48_SIC_Index2_6_GTAAAAAATC_GACCTTGT_S228_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_30_GTAC_11_SIC_Index2_6_CCATCATATC_GACCTTGT_S256_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_31_GTAC_12_SIC_Index2_6_TAACAAGATC_GACCTTGT_S257_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_32_GTAC_13_SIC_Index2_6_GAGGCGTATC_GACCTTGT_S258_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_33_GTAC_14_SIC_Index2_6_TTTAACTATC_GACCTTGT_S259_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_34_GTAC_15_SIC_Index2_6_GGTCCTCATC_GACCTTGT_S260_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_35_GTAC_16_SIC_Index2_6_CGGTGGCATC_GACCTTGT_S261_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_36_GTAC_17_SIC_Index2_6_ACTGTCGATC_GACCTTGT_S262_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_3_GTAC_49_SIC_Index2_6_GTCTGATATC_GACCTTGT_S229_L001_R1_001.fastq.gz </t>
+  </si>
+  <si>
+    <t>Brent_4_GTAC_50_SIC_Index2_6_CAATATCATC_GACCTTGT_S230_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_5_GTAC_51_SIC_Index2_6_CTCCCGAATC_GACCTTGT_S231_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_6_GTAC_52_SIC_Index2_6_GCCGTTTATC_GACCTTGT_S232_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_7_GTAC_53_SIC_Index2_6_TAGGTAAATC_GACCTTGT_S233_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_8_GTAC_54_SIC_Index2_6_TCGAGATATC_GACCTTGT_S234_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_9_GTAC_55_SIC_Index2_6_CATTTAGATC_GACCTTGT_S235_L001_R1_001.fastq.gz </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,67 +228,377 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -211,7 +650,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -219,10 +658,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -236,11 +675,17 @@
       <c r="I2" s="6">
         <v>8.16</v>
       </c>
+      <c r="J2" s="10">
+        <v>1.2254901960784315</v>
+      </c>
       <c r="K2" s="7">
-        <v>100739.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>100739</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -248,10 +693,10 @@
         <v>13</v>
       </c>
       <c r="C3" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -265,11 +710,17 @@
       <c r="I3" s="6">
         <v>31.8</v>
       </c>
+      <c r="J3" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K3" s="7">
-        <v>58326.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>58326</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -277,10 +728,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -294,11 +745,17 @@
       <c r="I4" s="6">
         <v>24.4</v>
       </c>
+      <c r="J4" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K4" s="7">
-        <v>39764.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>39764</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -306,10 +763,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -321,13 +778,19 @@
         <v>15</v>
       </c>
       <c r="I5" s="6">
-        <v>0.343</v>
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="J5" s="10">
+        <v>29.154518950437314</v>
       </c>
       <c r="K5" s="8">
-        <v>291.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>291</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -335,10 +798,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -352,11 +815,17 @@
       <c r="I6" s="6">
         <v>15.2</v>
       </c>
+      <c r="J6" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K6" s="7">
-        <v>69323.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>69323</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -364,10 +833,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -379,13 +848,19 @@
         <v>15</v>
       </c>
       <c r="I7" s="6">
-        <v>45.0</v>
+        <v>45</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="K7" s="7">
-        <v>92877.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>92877</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -393,10 +868,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
@@ -410,11 +885,17 @@
       <c r="I8" s="6">
         <v>41.3</v>
       </c>
+      <c r="J8" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="9">
-        <v>34012.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>34012</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -422,10 +903,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D9" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
@@ -437,13 +918,19 @@
         <v>15</v>
       </c>
       <c r="I9" s="6">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="K9" s="7">
-        <v>71866.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>71866</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -451,10 +938,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -466,13 +953,19 @@
         <v>15</v>
       </c>
       <c r="I10" s="6">
-        <v>0.365</v>
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="J10" s="10">
+        <v>27.397260273972602</v>
       </c>
       <c r="K10" s="8">
-        <v>2911.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>2911</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -480,10 +973,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="3">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="D11" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>14</v>
@@ -497,11 +990,17 @@
       <c r="I11" s="6">
         <v>22.6</v>
       </c>
+      <c r="J11" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K11" s="7">
-        <v>71082.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>71082</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -509,10 +1008,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="3">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>14</v>
@@ -526,11 +1025,17 @@
       <c r="I12" s="6">
         <v>0.442</v>
       </c>
+      <c r="J12" s="10">
+        <v>22.624434389140273</v>
+      </c>
       <c r="K12" s="6">
-        <v>9800.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>9800</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -538,10 +1043,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="3">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
@@ -555,11 +1060,14 @@
       <c r="I13" s="6">
         <v>22.4</v>
       </c>
+      <c r="J13" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K13" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -567,10 +1075,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="3">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
@@ -584,11 +1092,17 @@
       <c r="I14" s="6">
         <v>8.32</v>
       </c>
+      <c r="J14" s="10">
+        <v>1.2019230769230769</v>
+      </c>
       <c r="K14" s="7">
-        <v>83030.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>83030</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -596,10 +1110,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>14</v>
@@ -613,11 +1127,17 @@
       <c r="I15" s="6">
         <v>15.6</v>
       </c>
+      <c r="J15" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K15" s="7">
-        <v>55885.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>55885</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -625,10 +1145,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="3">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
@@ -642,11 +1162,17 @@
       <c r="I16" s="6">
         <v>14.7</v>
       </c>
+      <c r="J16" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K16" s="7">
-        <v>39760.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>39760</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -654,10 +1180,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>14</v>
@@ -671,11 +1197,17 @@
       <c r="I17" s="6">
         <v>7.66</v>
       </c>
+      <c r="J17" s="10">
+        <v>1.3054830287206267</v>
+      </c>
       <c r="K17" s="9">
-        <v>63840.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>63840</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -683,10 +1215,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="3">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>14</v>
@@ -700,11 +1232,17 @@
       <c r="I18" s="6">
         <v>17.2</v>
       </c>
+      <c r="J18" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K18" s="9">
-        <v>81279.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>81279</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
@@ -712,10 +1250,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="3">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>14</v>
@@ -727,13 +1265,19 @@
         <v>15</v>
       </c>
       <c r="I19" s="6">
-        <v>9.28</v>
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="J19" s="10">
+        <v>1.0775862068965518</v>
       </c>
       <c r="K19" s="9">
-        <v>283701.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>283701</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -741,10 +1285,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="3">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="D20" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
@@ -758,11 +1302,17 @@
       <c r="I20" s="6">
         <v>13.4</v>
       </c>
+      <c r="J20" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K20" s="9">
-        <v>55343.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>55343</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -770,10 +1320,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="D21" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>14</v>
@@ -785,13 +1335,19 @@
         <v>15</v>
       </c>
       <c r="I21" s="6">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="K21" s="9">
-        <v>50206.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>50206</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -799,10 +1355,10 @@
         <v>13</v>
       </c>
       <c r="C22" s="3">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D22" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>14</v>
@@ -814,13 +1370,19 @@
         <v>15</v>
       </c>
       <c r="I22" s="6">
-        <v>0.357</v>
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="J22" s="10">
+        <v>28.011204481792717</v>
       </c>
       <c r="K22" s="8">
-        <v>903.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>903</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -828,10 +1390,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="3">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D23" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>14</v>
@@ -845,11 +1407,17 @@
       <c r="I23" s="6">
         <v>0.443</v>
       </c>
+      <c r="J23" s="10">
+        <v>22.57336343115124</v>
+      </c>
       <c r="K23" s="6">
-        <v>435.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>435</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -857,10 +1425,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="3">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D24" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>14</v>
@@ -874,11 +1442,17 @@
       <c r="I24" s="6">
         <v>3.72</v>
       </c>
+      <c r="J24" s="10">
+        <v>2.6881720430107525</v>
+      </c>
       <c r="K24" s="7">
-        <v>58977.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>58977</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -886,10 +1460,10 @@
         <v>13</v>
       </c>
       <c r="C25" s="3">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D25" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>14</v>
@@ -903,11 +1477,17 @@
       <c r="I25" s="6">
         <v>3.28</v>
       </c>
+      <c r="J25" s="10">
+        <v>3.0487804878048781</v>
+      </c>
       <c r="K25" s="7">
-        <v>72675.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>72675</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -915,10 +1495,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
@@ -932,11 +1512,17 @@
       <c r="I26" s="6">
         <v>3.66</v>
       </c>
+      <c r="J26" s="10">
+        <v>2.7322404371584699</v>
+      </c>
       <c r="K26" s="7">
-        <v>51360.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>51360</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -944,10 +1530,10 @@
         <v>13</v>
       </c>
       <c r="C27" s="3">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>14</v>
@@ -961,11 +1547,17 @@
       <c r="I27" s="6">
         <v>2.06</v>
       </c>
+      <c r="J27" s="10">
+        <v>4.8543689320388346</v>
+      </c>
       <c r="K27" s="7">
-        <v>72403.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>72403</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
@@ -973,10 +1565,10 @@
         <v>13</v>
       </c>
       <c r="C28" s="3">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="D28" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>14</v>
@@ -990,11 +1582,17 @@
       <c r="I28" s="6">
         <v>4.26</v>
       </c>
+      <c r="J28" s="10">
+        <v>2.347417840375587</v>
+      </c>
       <c r="K28" s="9">
-        <v>82339.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>82339</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
@@ -1002,10 +1600,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="3">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="D29" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>14</v>
@@ -1017,13 +1615,19 @@
         <v>15</v>
       </c>
       <c r="I29" s="6">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J29" s="10">
+        <v>2.0408163265306123</v>
       </c>
       <c r="K29" s="7">
-        <v>59508.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>59508</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -1031,10 +1635,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="3">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -1048,11 +1652,17 @@
       <c r="I30" s="6">
         <v>1.45</v>
       </c>
+      <c r="J30" s="10">
+        <v>6.8965517241379315</v>
+      </c>
       <c r="K30" s="7">
-        <v>16032.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>16032</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
@@ -1060,10 +1670,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="3">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D31" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>14</v>
@@ -1077,11 +1687,17 @@
       <c r="I31" s="6">
         <v>1.61</v>
       </c>
+      <c r="J31" s="10">
+        <v>6.2111801242236018</v>
+      </c>
       <c r="K31" s="9">
-        <v>28595.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>28595</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -1089,10 +1705,10 @@
         <v>13</v>
       </c>
       <c r="C32" s="3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D32" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>14</v>
@@ -1106,11 +1722,17 @@
       <c r="I32" s="6">
         <v>1.51</v>
       </c>
+      <c r="J32" s="10">
+        <v>6.6225165562913908</v>
+      </c>
       <c r="K32" s="7">
-        <v>25041.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>25041</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
@@ -1118,10 +1740,10 @@
         <v>13</v>
       </c>
       <c r="C33" s="3">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D33" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>14</v>
@@ -1135,11 +1757,17 @@
       <c r="I33" s="6">
         <v>1.28</v>
       </c>
+      <c r="J33" s="10">
+        <v>7.8125</v>
+      </c>
       <c r="K33" s="7">
-        <v>60041.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>60041</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
@@ -1147,10 +1775,10 @@
         <v>13</v>
       </c>
       <c r="C34" s="3">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D34" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>14</v>
@@ -1164,11 +1792,17 @@
       <c r="I34" s="6">
         <v>1.71</v>
       </c>
+      <c r="J34" s="10">
+        <v>5.8479532163742691</v>
+      </c>
       <c r="K34" s="8">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>6</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
@@ -1176,10 +1810,10 @@
         <v>13</v>
       </c>
       <c r="C35" s="3">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="D35" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>14</v>
@@ -1193,11 +1827,17 @@
       <c r="I35" s="6">
         <v>12.3</v>
       </c>
+      <c r="J35" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="K35" s="7">
-        <v>81111.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>81111</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1205,10 +1845,10 @@
         <v>13</v>
       </c>
       <c r="C36" s="3">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D36" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>14</v>
@@ -1220,13 +1860,19 @@
         <v>15</v>
       </c>
       <c r="I36" s="6">
-        <v>0.261</v>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="J36" s="10">
+        <v>38.314176245210724</v>
       </c>
       <c r="K36" s="8">
-        <v>840.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>840</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>12</v>
       </c>
@@ -1234,10 +1880,10 @@
         <v>13</v>
       </c>
       <c r="C37" s="3">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D37" s="4">
-        <v>3676.0</v>
+        <v>3676</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>14</v>
@@ -1251,16 +1897,22 @@
       <c r="I37" s="6">
         <v>0.495</v>
       </c>
+      <c r="J37" s="10">
+        <v>20.202020202020201</v>
+      </c>
       <c r="K37" s="8">
-        <v>257.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>257</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fastqFiles/fastq_J.PLAGGENBERG_06.20.19.xlsx
+++ b/fastqFiles/fastq_J.PLAGGENBERG_06.20.19.xlsx
@@ -76,10 +76,10 @@
     <t xml:space="preserve">1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Brent_2_GTAC_48_SIC_Index2_6_GTAAAAAATC_GACCTTGT_S228_L001_R1_001.fastq.gz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_3_GTAC_49_SIC_Index2_6_GTCTGATATC_GACCTTGT_S229_L001_R1_001.fastq.gz </t>
+    <t xml:space="preserve">Brent_2_GTAC_48_SIC_Index2_6_GTAAAAAATC_GACCTTGT_S228_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_3_GTAC_49_SIC_Index2_6_GTCTGATATC_GACCTTGT_S229_L001_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_4_GTAC_50_SIC_Index2_6_CAATATCATC_GACCTTGT_S230_L001_R1_001.fastq.gz</t>
@@ -97,28 +97,28 @@
     <t xml:space="preserve">Brent_8_GTAC_54_SIC_Index2_6_TCGAGATATC_GACCTTGT_S234_L001_R1_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">Brent_9_GTAC_55_SIC_Index2_6_CATTTAGATC_GACCTTGT_S235_L001_R1_001.fastq.gz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_10_GTAC_56_SIC_Index2_6_TCCGGGAATC_GACCTTGT_S236_L001_R1_001.fastq.gz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_11_GTAC_57_SIC_Index2_6_CGAAAGTATC_GACCTTGT_S237_L001_R1_001.fastq.gz </t>
+    <t xml:space="preserve">Brent_9_GTAC_55_SIC_Index2_6_CATTTAGATC_GACCTTGT_S235_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_10_GTAC_56_SIC_Index2_6_TCCGGGAATC_GACCTTGT_S236_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_11_GTAC_57_SIC_Index2_6_CGAAAGTATC_GACCTTGT_S237_L001_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_13_GTAC_59_SIC_Index2_6_AGTTATGATC_GACCTTGT_S239_L001_R1_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">Brent_14_GTAC_60_SIC_Index2_6_CTGCAATATC_GACCTTGT_S240_L001_R1_001.fastq.gz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_15_GTAC_61_SIC_Index2_6_CAAGCCGATC_GACCTTGT_S241_L001_R1_001.fastq.gz </t>
+    <t xml:space="preserve">Brent_14_GTAC_60_SIC_Index2_6_CTGCAATATC_GACCTTGT_S240_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_15_GTAC_61_SIC_Index2_6_CAAGCCGATC_GACCTTGT_S241_L001_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_16_GTAC_62_SIC_Index2_6_GGGTCAAATC_GACCTTGT_S242_L001_R1_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">Brent_17_GTAC_63_SIC_Index2_6_GCAACGCATC_GACCTTGT_S243_L001_R1_001.fastq.gz </t>
+    <t xml:space="preserve">Brent_17_GTAC_63_SIC_Index2_6_GCAACGCATC_GACCTTGT_S243_L001_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_18_GTAC_64_SIC_Index2_6_TGATTACATC_GACCTTGT_S244_L001_R1_001.fastq.gz </t>
@@ -127,10 +127,10 @@
     <t xml:space="preserve">Brent_19_GTAC_65_SIC_Index2_6_TGCTGGGATC_GACCTTGT_S245_L001_R1_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">Brent_20_GTAC_66_SIC_Index2_6_GACACAGATC_GACCTTGT_S246_L001_R1_001.fastq.gz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_21_GTAC_1_SIC_Index2_6_TGAGGTTATC_GACCTTGT_S247_L001_R1_001.fastq.gz </t>
+    <t xml:space="preserve">Brent_20_GTAC_66_SIC_Index2_6_GACACAGATC_GACCTTGT_S246_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_21_GTAC_1_SIC_Index2_6_TGAGGTTATC_GACCTTGT_S247_L001_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_22_GTAC_2_SIC_Index2_6_GCTTAGAATC_GACCTTGT_S248_L001_R1_001.fastq.gz</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Brent_23_GTAC_3_SIC_Index2_6_ATGACAGATC_GACCTTGT_S249_L001_R1_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">Brent_24_GTAC_4_SIC_Index2_6_CACCTCCATC_GACCTTGT_S250_L001_R1_001.fastq.gz </t>
+    <t xml:space="preserve">Brent_24_GTAC_4_SIC_Index2_6_CACCTCCATC_GACCTTGT_S250_L001_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_25_GTAC_5_SIC_Index2_6_ATCGAGCATC_GACCTTGT_S251_L001_R1_001.fastq.gz</t>
@@ -157,16 +157,16 @@
     <t xml:space="preserve">Brent_29_GTAC_10_SIC_Index2_6_GGCAGCGATC_GACCTTGT_S255_L001_R1_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">Brent_30_GTAC_11_SIC_Index2_6_CCATCATATC_GACCTTGT_S256_L001_R1_001.fastq.gz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent_31_GTAC_12_SIC_Index2_6_TAACAAGATC_GACCTTGT_S257_L001_R1_001.fastq.gz </t>
+    <t xml:space="preserve">Brent_30_GTAC_11_SIC_Index2_6_CCATCATATC_GACCTTGT_S256_L001_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent_31_GTAC_12_SIC_Index2_6_TAACAAGATC_GACCTTGT_S257_L001_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_32_GTAC_13_SIC_Index2_6_GAGGCGTATC_GACCTTGT_S258_L001_R1_001.fastq.gz</t>
   </si>
   <si>
-    <t xml:space="preserve">Brent_33_GTAC_14_SIC_Index2_6_TTTAACTATC_GACCTTGT_S259_L001_R1_001.fastq.gz </t>
+    <t xml:space="preserve">Brent_33_GTAC_14_SIC_Index2_6_TTTAACTATC_GACCTTGT_S259_L001_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Brent_34_GTAC_15_SIC_Index2_6_GGTCCTCATC_GACCTTGT_S260_L001_R1_001.fastq.gz</t>
@@ -421,8 +421,8 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A36" activeCellId="0" sqref="A36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L35" activeCellId="0" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
